--- a/bom/Option_HD9_CFx_TopRail_MGN9.xlsx
+++ b/bom/Option_HD9_CFx_TopRail_MGN9.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836215B7-B635-44B9-A529-6363B6CB6B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{836215B7-B635-44B9-A529-6363B6CB6B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62B50002-C4DE-4DBD-87C3-094AF93DBD4D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="97">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -361,6 +361,15 @@
 Vz-HextrudORT Low and the Goliath
 Please read the notes.
 Happy Printing !</t>
+  </si>
+  <si>
+    <t>18b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This end stop flag is to be matched with the side mounted X End Stop option form the Vez Metal print heat for HevORT </t>
+  </si>
+  <si>
+    <t>XYHDx_CFx_TopRail_MGN9_VZPrintHead_XFlag v2</t>
   </si>
 </sst>
 </file>
@@ -693,9 +702,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,12 +725,357 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </left>
+        <right style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </right>
+        <top style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </top>
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="6" tint="-0.249977111117893"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -759,348 +1110,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </left>
-        <right style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </right>
-        <top style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </top>
-        <bottom style="thin">
-          <color theme="6" tint="-0.249977111117893"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1781,13 +1790,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>167341</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>122892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1319866</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1275417</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1825,13 +1834,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1365250</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1218490</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1869,13 +1878,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>184151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1394457</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1301751</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1913,13 +1922,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1416050</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1304123</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1957,13 +1966,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>298451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1355028</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1162050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2133,13 +2142,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>88901</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>222250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1409701</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1275766</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2253,6 +2262,50 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="4977423" cy="3301842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91043</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1403350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1368955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C279A0-72BD-4522-E9AC-DDD3DA425BFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3596243" y="30937200"/>
+          <a:ext cx="1312307" cy="1261005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2331,28 +2384,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C52D0CD-8C88-4E4D-9402-200FFB17A9F1}" name="Table1" displayName="Table1" ref="A2:K27" totalsRowShown="0" headerRowDxfId="0" dataDxfId="15" headerRowBorderDxfId="1" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C52D0CD-8C88-4E4D-9402-200FFB17A9F1}" name="Table1" displayName="Table1" ref="A2:K28" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A66386C4-C1F2-46F4-B3BF-C96CFA20F059}" name="SubAssy" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{E8CB70CF-BFCA-4B5A-8881-C383BA49617D}" name="Category" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{29E181D5-B628-4916-8428-1E94FC914B56}" name="Item" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{E10C1A08-7847-409F-BEB0-A4F0C690C948}" name="Thumbnail" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{2063F833-FC19-494C-AB3C-091DB1EB918F}" name="Part Name" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{8F190942-A290-4D02-93AF-E22E24328B55}" name="Part Description" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{5FE2C786-49C1-4789-8AFF-A49EF408914B}" name="Make/Buy" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{B7D54B57-2235-4849-A86F-6BE437DD3179}" name="QTY" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{590B3964-DEF5-455A-9CD6-9A9021CFCF04}" name="Comment" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{086A86B1-C668-484B-8271-59E34F35AE57}" name="Vendor" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{5F6478B1-CCFF-4875-A723-D6E78D4B8A1E}" name="Vendor URL" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A66386C4-C1F2-46F4-B3BF-C96CFA20F059}" name="SubAssy" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E8CB70CF-BFCA-4B5A-8881-C383BA49617D}" name="Category" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{29E181D5-B628-4916-8428-1E94FC914B56}" name="Item" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E10C1A08-7847-409F-BEB0-A4F0C690C948}" name="Thumbnail" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{2063F833-FC19-494C-AB3C-091DB1EB918F}" name="Part Name" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{8F190942-A290-4D02-93AF-E22E24328B55}" name="Part Description" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{5FE2C786-49C1-4789-8AFF-A49EF408914B}" name="Make/Buy" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{B7D54B57-2235-4849-A86F-6BE437DD3179}" name="QTY" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{590B3964-DEF5-455A-9CD6-9A9021CFCF04}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{086A86B1-C668-484B-8271-59E34F35AE57}" name="Vendor" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{5F6478B1-CCFF-4875-A723-D6E78D4B8A1E}" name="Vendor URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2390,9 +2443,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2425,26 +2478,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2477,26 +2513,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2670,10 +2689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -2701,47 +2720,47 @@
         <f>HYPERLINK("https://a360.co/3YuR1c5","LINK TO CAD")</f>
         <v>LINK TO CAD</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="35" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3321,15 +3340,15 @@
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="4">
-        <v>19</v>
+      <c r="C22" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>6</v>
@@ -3338,7 +3357,7 @@
         <v>52</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>56</v>
@@ -3347,30 +3366,32 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:11" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>86</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="15">
-        <v>20</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="15" t="s">
+      <c r="C23" s="4">
+        <v>19</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="15">
-        <v>2</v>
-      </c>
-      <c r="I23" s="18"/>
+      <c r="H23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>71</v>
+      </c>
       <c r="J23" s="7" t="s">
         <v>56</v>
       </c>
@@ -3378,7 +3399,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22" t="s">
         <v>86</v>
       </c>
@@ -3386,22 +3407,22 @@
         <v>34</v>
       </c>
       <c r="C24" s="15">
-        <v>21</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="17"/>
+      <c r="H24" s="15">
+        <v>2</v>
+      </c>
+      <c r="I24" s="18"/>
       <c r="J24" s="7" t="s">
         <v>56</v>
       </c>
@@ -3417,14 +3438,14 @@
         <v>34</v>
       </c>
       <c r="C25" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>6</v>
@@ -3448,14 +3469,14 @@
         <v>34</v>
       </c>
       <c r="C26" s="15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>6</v>
@@ -3475,30 +3496,61 @@
       <c r="A27" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="15">
-        <v>24</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="4">
         <v>1</v>
       </c>
-      <c r="I27" s="19"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="7" t="s">
         <v>56</v>
       </c>
       <c r="K27" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="15">
+        <v>24</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="9">
+        <v>1</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="21" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3513,17 +3565,16 @@
     <hyperlink ref="J6" location="MGN9_Rail_Length!A1" display="Hiwin Specs" xr:uid="{AD8D94A3-017C-43A2-B6E2-29E4F540A98B}"/>
     <hyperlink ref="K7" r:id="rId3" xr:uid="{557F6417-84B1-4DCF-A703-1ECE9F56E24D}"/>
     <hyperlink ref="K13" r:id="rId4" xr:uid="{4136F889-362E-4429-9323-BA00358D96A9}"/>
-    <hyperlink ref="K20:K27" r:id="rId5" display="https://github.com/MirageC79/HevORT/tree/master/files/STL/HD9/Option_HD9_CFx_TopRail" xr:uid="{F89A4EC5-EFE3-4FE9-A825-3A425F6FFF99}"/>
-    <hyperlink ref="K19" r:id="rId6" xr:uid="{ED1801E9-C8F5-4D55-89E4-04F6B1CF2DCF}"/>
+    <hyperlink ref="K19" r:id="rId5" xr:uid="{ED1801E9-C8F5-4D55-89E4-04F6B1CF2DCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+  <drawing r:id="rId7"/>
   <webPublishItems count="1">
     <webPublishItem id="4722" divId="Option_HD9_CFx_MGN9_4722" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\Option_HD9_CFx_TopRail_MGN9.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
